--- a/Code/Results/Cases/Case_2_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.6138361743171</v>
+        <v>0.8321464493434974</v>
       </c>
       <c r="C2">
-        <v>0.6462737746967946</v>
+        <v>0.2183703710160785</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.447652001000478</v>
+        <v>0.4255945681936879</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007660694313181592</v>
+        <v>0.002368596919982519</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.599974822091319</v>
+        <v>0.809833198744407</v>
       </c>
       <c r="O2">
-        <v>1.411472747194011</v>
+        <v>1.385518127233553</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.269668069253555</v>
+        <v>0.729054412652431</v>
       </c>
       <c r="C3">
-        <v>0.56823485481425</v>
+        <v>0.1940060492390501</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.241443144905659</v>
+        <v>0.3711622844637077</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007710258151394892</v>
+        <v>0.002371697075888117</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6074584346743563</v>
+        <v>0.8139744630372263</v>
       </c>
       <c r="O3">
-        <v>1.270953568681421</v>
+        <v>1.369872005639763</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.059249502692069</v>
+        <v>0.6656786958320424</v>
       </c>
       <c r="C4">
-        <v>0.5204428683586002</v>
+        <v>0.1789658641554013</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.117417434951406</v>
+        <v>0.3378381819432263</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007741495057806778</v>
+        <v>0.002373699025721346</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.613040216893765</v>
+        <v>0.8169254432623134</v>
       </c>
       <c r="O4">
-        <v>1.189758407186361</v>
+        <v>1.361729970833522</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.97367552883</v>
+        <v>0.6398339292775574</v>
       </c>
       <c r="C5">
-        <v>0.5009866651752475</v>
+        <v>0.1728168069009826</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.067426035295682</v>
+        <v>0.3242808676558582</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007754435001216691</v>
+        <v>0.002374539672497145</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6155530711786739</v>
+        <v>0.8182307626882164</v>
       </c>
       <c r="O5">
-        <v>1.157832703094272</v>
+        <v>1.358777953036594</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.959475017991991</v>
+        <v>0.6355413190343313</v>
       </c>
       <c r="C6">
-        <v>0.4977568243804456</v>
+        <v>0.1717945537360777</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.059155458560625</v>
+        <v>0.3220309884541592</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007756596624767647</v>
+        <v>0.002374680763735815</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.615984440576149</v>
+        <v>0.8184537207387024</v>
       </c>
       <c r="O6">
-        <v>1.152598399510936</v>
+        <v>1.358309803947321</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.058094788151436</v>
+        <v>0.6653302188868793</v>
       </c>
       <c r="C7">
-        <v>0.520180411444926</v>
+        <v>0.1788830168290474</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.116741132424053</v>
+        <v>0.3376552546630052</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007741668705955408</v>
+        <v>0.002373710262232629</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6130731541263685</v>
+        <v>0.8169426309832488</v>
       </c>
       <c r="O7">
-        <v>1.189323288944848</v>
+        <v>1.361688680442683</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.494946127566379</v>
+        <v>0.7966166152938854</v>
       </c>
       <c r="C8">
-        <v>0.6193327055643749</v>
+        <v>0.2099863239570539</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.375950656820493</v>
+        <v>0.4068048501122945</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007677622175461518</v>
+        <v>0.002369645471884339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6023441780173684</v>
+        <v>0.8111764472638185</v>
       </c>
       <c r="O8">
-        <v>1.36189365691493</v>
+        <v>1.379817883164463</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.361457789651411</v>
+        <v>1.053443613538832</v>
       </c>
       <c r="C9">
-        <v>0.8153564202185635</v>
+        <v>0.2703380557669561</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.909880040602928</v>
+        <v>0.5432776199618417</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007557996929174257</v>
+        <v>0.002362451756905457</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5896183840517182</v>
+        <v>0.8031037082158008</v>
       </c>
       <c r="O9">
-        <v>1.746387799835361</v>
+        <v>1.427103674656166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.008295311017264</v>
+        <v>1.241751292722427</v>
       </c>
       <c r="C10">
-        <v>0.961293891796231</v>
+        <v>0.3142864214171937</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.325862466985399</v>
+        <v>0.6442182070340152</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007473107995721636</v>
+        <v>0.002357635125946625</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5860702874201849</v>
+        <v>0.7991400336670296</v>
       </c>
       <c r="O10">
-        <v>2.065809825793082</v>
+        <v>1.469160004652849</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.305847118931581</v>
+        <v>1.327335126915386</v>
       </c>
       <c r="C11">
-        <v>1.028347822798963</v>
+        <v>0.3341946887317135</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.522384247583389</v>
+        <v>0.6903167798395629</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007434979040100463</v>
+        <v>0.002355544536823321</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5858973713455526</v>
+        <v>0.7977632915569899</v>
       </c>
       <c r="O11">
-        <v>2.221380474092399</v>
+        <v>1.489916409744865</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.419097908856941</v>
+        <v>1.359731904967589</v>
       </c>
       <c r="C12">
-        <v>1.05385876399319</v>
+        <v>0.3417212611233538</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.598060006822877</v>
+        <v>0.7078014320347421</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007420595345609714</v>
+        <v>0.00235476725399721</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5860560187697104</v>
+        <v>0.7973032027205278</v>
       </c>
       <c r="O12">
-        <v>2.281979534187485</v>
+        <v>1.498012735531404</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.394680061662484</v>
+        <v>1.352755222309895</v>
       </c>
       <c r="C13">
-        <v>1.048358825826739</v>
+        <v>0.3401008268330656</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.581702290793061</v>
+        <v>0.7040345130603356</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007423690951858684</v>
+        <v>0.002354934017460243</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5860115960552008</v>
+        <v>0.7973995676180721</v>
       </c>
       <c r="O13">
-        <v>2.26884972526571</v>
+        <v>1.496258493319175</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.315152204080619</v>
+        <v>1.330000673091661</v>
       </c>
       <c r="C14">
-        <v>1.030444092273115</v>
+        <v>0.3348141509577545</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.528583630223821</v>
+        <v>0.6917546763031481</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007433794678667228</v>
+        <v>0.002355480301618804</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5859058287710184</v>
+        <v>0.7977242124510013</v>
       </c>
       <c r="O14">
-        <v>2.226330863327206</v>
+        <v>1.490577747580545</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.266517059428054</v>
+        <v>1.316061276044934</v>
       </c>
       <c r="C15">
-        <v>1.019487052012806</v>
+        <v>0.3315743082675056</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.49621738882739</v>
+        <v>0.6842366502823864</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007439990171243502</v>
+        <v>0.002355816786700345</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5858707611467793</v>
+        <v>0.7979310422830679</v>
       </c>
       <c r="O15">
-        <v>2.20051336271024</v>
+        <v>1.48712898335026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.988924283429071</v>
+        <v>1.236156552084822</v>
       </c>
       <c r="C16">
-        <v>0.9569270849142413</v>
+        <v>0.3129836632921297</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.313183152799979</v>
+        <v>0.6412093712781797</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000747560836545369</v>
+        <v>0.002357773767044234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5861119938978021</v>
+        <v>0.799238581394377</v>
       </c>
       <c r="O16">
-        <v>2.055866999457919</v>
+        <v>1.46783644850035</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.819542967960444</v>
+        <v>1.187117037111364</v>
       </c>
       <c r="C17">
-        <v>0.9187348118051943</v>
+        <v>0.3015572531278679</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.202903753884243</v>
+        <v>0.6148612462464627</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007497573592215034</v>
+        <v>0.002359000002124388</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5866406003156897</v>
+        <v>0.8001498716084825</v>
       </c>
       <c r="O17">
-        <v>1.969903015014125</v>
+        <v>1.456419151574124</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.722423504281551</v>
+        <v>1.158903479073388</v>
       </c>
       <c r="C18">
-        <v>0.896828772433139</v>
+        <v>0.2949771814681412</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.140145863470323</v>
+        <v>0.5997233284111161</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007510254301157549</v>
+        <v>0.002359714766091054</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5870791824117845</v>
+        <v>0.800714154873404</v>
       </c>
       <c r="O18">
-        <v>1.921410826856913</v>
+        <v>1.450004993858613</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.689589928097462</v>
+        <v>1.149349616601512</v>
       </c>
       <c r="C19">
-        <v>0.8894216064923341</v>
+        <v>0.2927479301395408</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.119006645762553</v>
+        <v>0.5946007126186572</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007514556257949363</v>
+        <v>0.002359958401085531</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5872502981822549</v>
+        <v>0.8009121062266615</v>
       </c>
       <c r="O19">
-        <v>1.905149661625501</v>
+        <v>1.447859426986867</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.83754173303322</v>
+        <v>1.192338140572474</v>
       </c>
       <c r="C20">
-        <v>0.92279395739439</v>
+        <v>0.3027744331224937</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.214572228783823</v>
+        <v>0.6176642916540942</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007495230607501818</v>
+        <v>0.002358868488255307</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5865702875635037</v>
+        <v>0.8000487100129874</v>
       </c>
       <c r="O20">
-        <v>1.978954041963362</v>
+        <v>1.457618711896032</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.338495020601613</v>
+        <v>1.336684566002532</v>
       </c>
       <c r="C21">
-        <v>1.035702650928442</v>
+        <v>0.3363673097689457</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.544149923365438</v>
+        <v>0.6953607810138749</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007430825609221698</v>
+        <v>0.002355319455010072</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5859306694573121</v>
+        <v>0.7976271943955737</v>
       </c>
       <c r="O21">
-        <v>2.238772060133215</v>
+        <v>1.492239885010491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.669300321904757</v>
+        <v>1.430953254092969</v>
       </c>
       <c r="C22">
-        <v>1.110202249628202</v>
+        <v>0.3582506816890998</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.766997237535747</v>
+        <v>0.7463048973279029</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007389044813639615</v>
+        <v>0.002353083726647291</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5868281138871083</v>
+        <v>0.796401606001055</v>
       </c>
       <c r="O22">
-        <v>2.418533763886984</v>
+        <v>1.516245567910232</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.492395694011691</v>
+        <v>1.380646920336062</v>
       </c>
       <c r="C23">
-        <v>1.070367154295042</v>
+        <v>0.3465777124260399</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.647300136270971</v>
+        <v>0.7190992311472257</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007411321029402173</v>
+        <v>0.002354269337325344</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5862227345310629</v>
+        <v>0.7970230753472123</v>
       </c>
       <c r="O23">
-        <v>2.321603700075457</v>
+        <v>1.503306236256748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.829403688519108</v>
+        <v>1.189977742215547</v>
       </c>
       <c r="C24">
-        <v>0.9209586598909141</v>
+        <v>0.3022241799144467</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.20929492320947</v>
+        <v>0.616397003956962</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007496289705617426</v>
+        <v>0.002358927915041994</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5866016577207347</v>
+        <v>0.8000943194142565</v>
       </c>
       <c r="O24">
-        <v>1.974859192711449</v>
+        <v>1.457075924269873</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.12558130113274</v>
+        <v>0.9840322917638105</v>
       </c>
       <c r="C25">
-        <v>0.7620653582277157</v>
+        <v>0.2540801152023562</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.761922748338449</v>
+        <v>0.5062501904638026</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007589781723409579</v>
+        <v>0.002364315177292259</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5920992679497772</v>
+        <v>0.8049418045789238</v>
       </c>
       <c r="O25">
-        <v>1.636580035398595</v>
+        <v>1.413038689045976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8321464493434974</v>
+        <v>2.613836174317157</v>
       </c>
       <c r="C2">
-        <v>0.2183703710160785</v>
+        <v>0.6462737746967093</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4255945681936879</v>
+        <v>1.447652001000463</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002368596919982519</v>
+        <v>0.0007660694312888114</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.809833198744407</v>
+        <v>0.5999748220913759</v>
       </c>
       <c r="O2">
-        <v>1.385518127233553</v>
+        <v>1.411472747194011</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.729054412652431</v>
+        <v>2.269668069253555</v>
       </c>
       <c r="C3">
-        <v>0.1940060492390501</v>
+        <v>0.5682348548145342</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3711622844637077</v>
+        <v>1.241443144905645</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002371697075888117</v>
+        <v>0.0007710258151121252</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8139744630372263</v>
+        <v>0.6074584346743634</v>
       </c>
       <c r="O3">
-        <v>1.369872005639763</v>
+        <v>1.270953568681477</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6656786958320424</v>
+        <v>2.059249502692069</v>
       </c>
       <c r="C4">
-        <v>0.1789658641554013</v>
+        <v>0.5204428683588844</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3378381819432263</v>
+        <v>1.117417434951378</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002373699025721346</v>
+        <v>0.0007741495057811014</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8169254432623134</v>
+        <v>0.6130402168937579</v>
       </c>
       <c r="O4">
-        <v>1.361729970833522</v>
+        <v>1.189758407186361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6398339292775574</v>
+        <v>1.973675528829972</v>
       </c>
       <c r="C5">
-        <v>0.1728168069009826</v>
+        <v>0.5009866651751622</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3242808676558582</v>
+        <v>1.067426035295696</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002374539672497145</v>
+        <v>0.0007754435000856681</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8182307626882164</v>
+        <v>0.6155530711786668</v>
       </c>
       <c r="O5">
-        <v>1.358777953036594</v>
+        <v>1.1578327030943</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6355413190343313</v>
+        <v>1.959475017992048</v>
       </c>
       <c r="C6">
-        <v>0.1717945537360777</v>
+        <v>0.4977568243803887</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3220309884541592</v>
+        <v>1.059155458560582</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002374680763735815</v>
+        <v>0.0007756596623836876</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8184537207387024</v>
+        <v>0.61598444057622</v>
       </c>
       <c r="O6">
-        <v>1.358309803947321</v>
+        <v>1.152598399510964</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6653302188868793</v>
+        <v>2.058094788151294</v>
       </c>
       <c r="C7">
-        <v>0.1788830168290474</v>
+        <v>0.5201804114446986</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3376552546630052</v>
+        <v>1.116741132424039</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002373710262232629</v>
+        <v>0.0007741668707321483</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8169426309832488</v>
+        <v>0.6130731541263117</v>
       </c>
       <c r="O7">
-        <v>1.361688680442683</v>
+        <v>1.189323288944848</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7966166152938854</v>
+        <v>2.494946127566266</v>
       </c>
       <c r="C8">
-        <v>0.2099863239570539</v>
+        <v>0.6193327055640907</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4068048501122945</v>
+        <v>1.375950656820493</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002369645471884339</v>
+        <v>0.00076776221754149</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8111764472638185</v>
+        <v>0.6023441780173613</v>
       </c>
       <c r="O8">
-        <v>1.379817883164463</v>
+        <v>1.361893656914816</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.053443613538832</v>
+        <v>3.361457789651411</v>
       </c>
       <c r="C9">
-        <v>0.2703380557669561</v>
+        <v>0.8153564202185635</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5432776199618417</v>
+        <v>1.909880040602928</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002362451756905457</v>
+        <v>0.0007557996929151468</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8031037082158008</v>
+        <v>0.5896183840517111</v>
       </c>
       <c r="O9">
-        <v>1.427103674656166</v>
+        <v>1.746387799835361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.241751292722427</v>
+        <v>4.008295311017321</v>
       </c>
       <c r="C10">
-        <v>0.3142864214171937</v>
+        <v>0.9612938917964584</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6442182070340152</v>
+        <v>2.325862466985384</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002357635125946625</v>
+        <v>0.0007473107995999974</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7991400336670296</v>
+        <v>0.5860702874201991</v>
       </c>
       <c r="O10">
-        <v>1.469160004652849</v>
+        <v>2.065809825793139</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.327335126915386</v>
+        <v>4.305847118931638</v>
       </c>
       <c r="C11">
-        <v>0.3341946887317135</v>
+        <v>1.028347822798963</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6903167798395629</v>
+        <v>2.522384247583375</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002355544536823321</v>
+        <v>0.0007434979040381928</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7977632915569899</v>
+        <v>0.5858973713454816</v>
       </c>
       <c r="O11">
-        <v>1.489916409744865</v>
+        <v>2.221380474092427</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.359731904967589</v>
+        <v>4.41909790885677</v>
       </c>
       <c r="C12">
-        <v>0.3417212611233538</v>
+        <v>1.053858763992849</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7078014320347421</v>
+        <v>2.598060006822848</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.00235476725399721</v>
+        <v>0.0007420595345602277</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7973032027205278</v>
+        <v>0.5860560187696962</v>
       </c>
       <c r="O12">
-        <v>1.498012735531404</v>
+        <v>2.281979534187457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.352755222309895</v>
+        <v>4.394680061662427</v>
       </c>
       <c r="C13">
-        <v>0.3401008268330656</v>
+        <v>1.048358825826341</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7040345130603356</v>
+        <v>2.581702290792975</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002354934017460243</v>
+        <v>0.000742369095213049</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7973995676180721</v>
+        <v>0.5860115960552008</v>
       </c>
       <c r="O13">
-        <v>1.496258493319175</v>
+        <v>2.26884972526571</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.330000673091661</v>
+        <v>4.315152204080448</v>
       </c>
       <c r="C14">
-        <v>0.3348141509577545</v>
+        <v>1.030444092272916</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6917546763031481</v>
+        <v>2.528583630223835</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002355480301618804</v>
+        <v>0.0007433794678952588</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7977242124510013</v>
+        <v>0.5859058287710894</v>
       </c>
       <c r="O14">
-        <v>1.490577747580545</v>
+        <v>2.226330863327263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.316061276044934</v>
+        <v>4.266517059428395</v>
       </c>
       <c r="C15">
-        <v>0.3315743082675056</v>
+        <v>1.019487052012892</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6842366502823864</v>
+        <v>2.496217388827375</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002355816786700345</v>
+        <v>0.0007439990170956559</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7979310422830679</v>
+        <v>0.5858707611467224</v>
       </c>
       <c r="O15">
-        <v>1.48712898335026</v>
+        <v>2.200513362710268</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.236156552084822</v>
+        <v>3.988924283429242</v>
       </c>
       <c r="C16">
-        <v>0.3129836632921297</v>
+        <v>0.956927084914355</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6412093712781797</v>
+        <v>2.313183152800022</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002357773767044234</v>
+        <v>0.0007475608365450752</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.799238581394377</v>
+        <v>0.586111993897859</v>
       </c>
       <c r="O16">
-        <v>1.46783644850035</v>
+        <v>2.055866999458004</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.187117037111364</v>
+        <v>3.819542967960558</v>
       </c>
       <c r="C17">
-        <v>0.3015572531278679</v>
+        <v>0.9187348118052228</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6148612462464627</v>
+        <v>2.202903753884229</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002359000002124388</v>
+        <v>0.0007497573592222583</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8001498716084825</v>
+        <v>0.5866406003156897</v>
       </c>
       <c r="O17">
-        <v>1.456419151574124</v>
+        <v>1.969903015014069</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.158903479073388</v>
+        <v>3.722423504281608</v>
       </c>
       <c r="C18">
-        <v>0.2949771814681412</v>
+        <v>0.8968287724332811</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5997233284111161</v>
+        <v>2.140145863470323</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002359714766091054</v>
+        <v>0.0007510254300875929</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.800714154873404</v>
+        <v>0.5870791824117987</v>
       </c>
       <c r="O18">
-        <v>1.450004993858613</v>
+        <v>1.921410826856942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.149349616601512</v>
+        <v>3.689589928097462</v>
       </c>
       <c r="C19">
-        <v>0.2927479301395408</v>
+        <v>0.8894216064924478</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5946007126186572</v>
+        <v>2.119006645762568</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002359958401085531</v>
+        <v>0.0007514556257662266</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8009121062266615</v>
+        <v>0.5872502981822549</v>
       </c>
       <c r="O19">
-        <v>1.447859426986867</v>
+        <v>1.905149661625501</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.192338140572474</v>
+        <v>3.83754173303339</v>
       </c>
       <c r="C20">
-        <v>0.3027744331224937</v>
+        <v>0.9227939573942763</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6176642916540942</v>
+        <v>2.214572228783808</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002358868488255307</v>
+        <v>0.0007495230607504575</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8000487100129874</v>
+        <v>0.5865702875634895</v>
       </c>
       <c r="O20">
-        <v>1.457618711896032</v>
+        <v>1.978954041963391</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.336684566002532</v>
+        <v>4.338495020601613</v>
       </c>
       <c r="C21">
-        <v>0.3363673097689457</v>
+        <v>1.035702650928584</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6953607810138749</v>
+        <v>2.544149923365453</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002355319455010072</v>
+        <v>0.0007430825609224636</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7976271943955737</v>
+        <v>0.5859306694573121</v>
       </c>
       <c r="O21">
-        <v>1.492239885010491</v>
+        <v>2.2387720601333</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.430953254092969</v>
+        <v>4.669300321904757</v>
       </c>
       <c r="C22">
-        <v>0.3582506816890998</v>
+        <v>1.110202249628173</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7463048973279029</v>
+        <v>2.766997237535747</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002353083726647291</v>
+        <v>0.0007389044813362059</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.796401606001055</v>
+        <v>0.5868281138870657</v>
       </c>
       <c r="O22">
-        <v>1.516245567910232</v>
+        <v>2.418533763886984</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.380646920336062</v>
+        <v>4.492395694011975</v>
       </c>
       <c r="C23">
-        <v>0.3465777124260399</v>
+        <v>1.070367154295127</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7190992311472257</v>
+        <v>2.647300136270985</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002354269337325344</v>
+        <v>0.0007411321029681951</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7970230753472123</v>
+        <v>0.586222734531006</v>
       </c>
       <c r="O23">
-        <v>1.503306236256748</v>
+        <v>2.321603700075428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.189977742215547</v>
+        <v>3.829403688518994</v>
       </c>
       <c r="C24">
-        <v>0.3022241799144467</v>
+        <v>0.9209586598906014</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.616397003956962</v>
+        <v>2.209294923209455</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002358927915041994</v>
+        <v>0.0007496289705620234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8000943194142565</v>
+        <v>0.5866016577207347</v>
       </c>
       <c r="O24">
-        <v>1.457075924269873</v>
+        <v>1.974859192711449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9840322917638105</v>
+        <v>3.12558130113274</v>
       </c>
       <c r="C25">
-        <v>0.2540801152023562</v>
+        <v>0.7620653582279147</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5062501904638026</v>
+        <v>1.761922748338463</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002364315177292259</v>
+        <v>0.0007589781723156634</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8049418045789238</v>
+        <v>0.5920992679497772</v>
       </c>
       <c r="O25">
-        <v>1.413038689045976</v>
+        <v>1.636580035398566</v>
       </c>
     </row>
   </sheetData>
